--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="217">
   <si>
     <t>p34_cod</t>
   </si>
@@ -77,18 +77,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -1051,13 +1039,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,31 +1109,19 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1154,39 +1130,27 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>219</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1195,39 +1159,27 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="S3" t="s">
-        <v>219</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1236,39 +1188,27 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S4" t="s">
-        <v>219</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1277,39 +1217,27 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>219</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1318,39 +1246,27 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>219</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1359,39 +1275,27 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>219</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1400,39 +1304,27 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>219</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1441,39 +1333,27 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>219</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1482,39 +1362,27 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>219</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1523,39 +1391,27 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P11" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>219</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -1564,39 +1420,27 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S12" t="s">
-        <v>220</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1605,39 +1449,27 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S13" t="s">
-        <v>220</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1646,39 +1478,27 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S14" t="s">
-        <v>220</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M15">
         <v>16</v>
@@ -1687,39 +1507,27 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P15" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="S15" t="s">
-        <v>219</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M16">
         <v>17</v>
@@ -1728,39 +1536,27 @@
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P16" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="S16" t="s">
-        <v>219</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M17">
         <v>18</v>
@@ -1769,39 +1565,27 @@
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P17" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="S17" t="s">
-        <v>219</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M18">
         <v>19</v>
@@ -1810,39 +1594,27 @@
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S18" t="s">
-        <v>219</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -1851,39 +1623,27 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>219</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M20">
         <v>20</v>
@@ -1892,39 +1652,27 @@
         <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="S20" t="s">
-        <v>219</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M21">
         <v>21</v>
@@ -1933,39 +1681,27 @@
         <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="S21" t="s">
-        <v>219</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -1974,39 +1710,27 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>219</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -2015,39 +1739,27 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>219</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -2056,39 +1768,27 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>219</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -2097,39 +1797,27 @@
         <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S25" t="s">
-        <v>219</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M26">
         <v>23</v>
@@ -2138,39 +1826,27 @@
         <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S26" t="s">
-        <v>219</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M27">
         <v>23</v>
@@ -2179,39 +1855,27 @@
         <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S27" t="s">
-        <v>219</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M28">
         <v>23</v>
@@ -2220,39 +1884,27 @@
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S28" t="s">
-        <v>219</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29">
         <v>23</v>
@@ -2261,39 +1913,27 @@
         <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S29" t="s">
-        <v>219</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M30">
         <v>23</v>
@@ -2302,39 +1942,27 @@
         <v>38</v>
       </c>
       <c r="O30" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S30" t="s">
-        <v>219</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M31">
         <v>23</v>
@@ -2343,39 +1971,27 @@
         <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S31" t="s">
-        <v>219</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M32">
         <v>23</v>
@@ -2384,39 +2000,27 @@
         <v>38</v>
       </c>
       <c r="O32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S32" t="s">
-        <v>219</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M33">
         <v>23</v>
@@ -2425,39 +2029,27 @@
         <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S33" t="s">
-        <v>219</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M34">
         <v>23</v>
@@ -2466,39 +2058,27 @@
         <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S34" t="s">
-        <v>219</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M35">
         <v>23</v>
@@ -2507,39 +2087,27 @@
         <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S35" t="s">
-        <v>219</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M36">
         <v>23</v>
@@ -2548,39 +2116,27 @@
         <v>38</v>
       </c>
       <c r="O36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S36" t="s">
-        <v>219</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M37">
         <v>23</v>
@@ -2589,39 +2145,27 @@
         <v>38</v>
       </c>
       <c r="O37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P37" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S37" t="s">
-        <v>219</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M38">
         <v>23</v>
@@ -2630,39 +2174,27 @@
         <v>38</v>
       </c>
       <c r="O38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P38" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S38" t="s">
-        <v>219</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M39">
         <v>24</v>
@@ -2671,39 +2203,27 @@
         <v>51</v>
       </c>
       <c r="O39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S39" t="s">
-        <v>220</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M40">
         <v>24</v>
@@ -2712,39 +2232,27 @@
         <v>51</v>
       </c>
       <c r="O40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P40" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S40" t="s">
-        <v>220</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M41">
         <v>24</v>
@@ -2753,39 +2261,27 @@
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P41" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S41" t="s">
-        <v>220</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M42">
         <v>24</v>
@@ -2794,39 +2290,27 @@
         <v>51</v>
       </c>
       <c r="O42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P42" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S42" t="s">
-        <v>220</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M43">
         <v>24</v>
@@ -2835,39 +2319,27 @@
         <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P43" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S43" t="s">
-        <v>220</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M44">
         <v>24</v>
@@ -2876,39 +2348,27 @@
         <v>51</v>
       </c>
       <c r="O44" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P44" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S44" t="s">
-        <v>220</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M45">
         <v>27</v>
@@ -2917,39 +2377,27 @@
         <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P45" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="S45" t="s">
-        <v>219</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -2958,39 +2406,27 @@
         <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P46" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="S46" t="s">
-        <v>219</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M47">
         <v>29</v>
@@ -2999,39 +2435,27 @@
         <v>58</v>
       </c>
       <c r="O47" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P47" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="S47" t="s">
-        <v>219</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -3040,39 +2464,27 @@
         <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P48" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="S48" t="s">
-        <v>219</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M49">
         <v>31</v>
@@ -3081,39 +2493,27 @@
         <v>60</v>
       </c>
       <c r="O49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P49" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S49" t="s">
-        <v>219</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M50">
         <v>31</v>
@@ -3122,39 +2522,27 @@
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P50" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S50" t="s">
-        <v>219</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M51">
         <v>32</v>
@@ -3163,39 +2551,27 @@
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P51" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="S51" t="s">
-        <v>219</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -3204,39 +2580,27 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>219</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M53">
         <v>34</v>
@@ -3245,39 +2609,27 @@
         <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="S53" t="s">
-        <v>219</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -3286,39 +2638,27 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>219</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M55">
         <v>42</v>
@@ -3327,39 +2667,27 @@
         <v>84</v>
       </c>
       <c r="O55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P55" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="S55" t="s">
-        <v>219</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M56">
         <v>44</v>
@@ -3368,39 +2696,27 @@
         <v>87</v>
       </c>
       <c r="O56" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P56" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="S56" t="s">
-        <v>219</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M57">
         <v>45</v>
@@ -3409,39 +2725,27 @@
         <v>88</v>
       </c>
       <c r="O57" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S57" t="s">
-        <v>220</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M58">
         <v>45</v>
@@ -3450,39 +2754,27 @@
         <v>88</v>
       </c>
       <c r="O58" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S58" t="s">
-        <v>220</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M59">
         <v>45</v>
@@ -3491,39 +2783,27 @@
         <v>88</v>
       </c>
       <c r="O59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S59" t="s">
-        <v>220</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M60">
         <v>45</v>
@@ -3532,39 +2812,27 @@
         <v>88</v>
       </c>
       <c r="O60" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S60" t="s">
-        <v>220</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -3573,39 +2841,27 @@
         <v>90</v>
       </c>
       <c r="O61" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P61" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S61" t="s">
-        <v>219</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M62">
         <v>46</v>
@@ -3614,39 +2870,27 @@
         <v>90</v>
       </c>
       <c r="O62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S62" t="s">
-        <v>219</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M63">
         <v>46</v>
@@ -3655,39 +2899,27 @@
         <v>90</v>
       </c>
       <c r="O63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S63" t="s">
-        <v>219</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M64">
         <v>49</v>
@@ -3696,39 +2928,27 @@
         <v>93</v>
       </c>
       <c r="O64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S64" t="s">
-        <v>219</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M65">
         <v>49</v>
@@ -3737,39 +2957,27 @@
         <v>93</v>
       </c>
       <c r="O65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S65" t="s">
-        <v>219</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M66">
         <v>50</v>
@@ -3778,39 +2986,27 @@
         <v>94</v>
       </c>
       <c r="O66" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S66" t="s">
-        <v>219</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M67">
         <v>50</v>
@@ -3819,39 +3015,27 @@
         <v>94</v>
       </c>
       <c r="O67" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S67" t="s">
-        <v>219</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M68">
         <v>50</v>
@@ -3860,39 +3044,27 @@
         <v>94</v>
       </c>
       <c r="O68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S68" t="s">
-        <v>219</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M69">
         <v>53</v>
@@ -3901,39 +3073,27 @@
         <v>98</v>
       </c>
       <c r="O69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P69" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="S69" t="s">
-        <v>220</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M70">
         <v>54</v>
@@ -3942,39 +3102,27 @@
         <v>99</v>
       </c>
       <c r="O70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S70" t="s">
-        <v>219</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M71">
         <v>54</v>
@@ -3983,39 +3131,27 @@
         <v>99</v>
       </c>
       <c r="O71" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S71" t="s">
-        <v>219</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M72">
         <v>54</v>
@@ -4024,39 +3160,27 @@
         <v>99</v>
       </c>
       <c r="O72" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S72" t="s">
-        <v>219</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -4065,39 +3189,27 @@
         <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P73" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="S73" t="s">
-        <v>219</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M74">
         <v>57</v>
@@ -4106,39 +3218,27 @@
         <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S74" t="s">
-        <v>219</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M75">
         <v>57</v>
@@ -4147,39 +3247,27 @@
         <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S75" t="s">
-        <v>219</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M76">
         <v>57</v>
@@ -4188,39 +3276,27 @@
         <v>102</v>
       </c>
       <c r="O76" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S76" t="s">
-        <v>219</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M77">
         <v>59</v>
@@ -4229,39 +3305,27 @@
         <v>104</v>
       </c>
       <c r="O77" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P77" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="S77" t="s">
-        <v>219</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M78">
         <v>60</v>
@@ -4270,39 +3334,27 @@
         <v>105</v>
       </c>
       <c r="O78" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P78" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="S78" t="s">
-        <v>219</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M79">
         <v>61</v>
@@ -4311,39 +3363,27 @@
         <v>106</v>
       </c>
       <c r="O79" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P79" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="S79" t="s">
-        <v>219</v>
-      </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M80">
         <v>65</v>
@@ -4352,39 +3392,27 @@
         <v>111</v>
       </c>
       <c r="O80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="S80" t="s">
-        <v>219</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M81">
         <v>66</v>
@@ -4393,39 +3421,27 @@
         <v>113</v>
       </c>
       <c r="O81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="S81" t="s">
-        <v>219</v>
-      </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>0</v>
-      </c>
-      <c r="X81">
-        <v>0</v>
-      </c>
-      <c r="Y81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M82">
         <v>68</v>
@@ -4434,39 +3450,27 @@
         <v>115</v>
       </c>
       <c r="O82" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="S82" t="s">
-        <v>220</v>
-      </c>
-      <c r="V82">
-        <v>0</v>
-      </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-      <c r="X82">
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M83">
         <v>71</v>
@@ -4475,39 +3479,27 @@
         <v>119</v>
       </c>
       <c r="O83" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S83" t="s">
-        <v>219</v>
-      </c>
-      <c r="V83">
-        <v>0</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M84">
         <v>71</v>
@@ -4516,25 +3508,13 @@
         <v>119</v>
       </c>
       <c r="O84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S84" t="s">
-        <v>219</v>
-      </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
-      <c r="W84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>0</v>
-      </c>
-      <c r="Y84">
-        <v>0</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
   <si>
     <t>p34_cod</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -1039,13 +1042,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U84"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,19 +1112,22 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1130,27 +1136,30 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1159,27 +1168,30 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="S3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1188,27 +1200,30 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1217,27 +1232,30 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1246,27 +1264,30 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1275,27 +1296,30 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1304,27 +1328,30 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1333,27 +1360,30 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1362,27 +1392,30 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1391,27 +1424,30 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P11" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -1420,27 +1456,30 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>217</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1449,27 +1488,30 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>217</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1478,27 +1520,30 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>217</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15">
         <v>16</v>
@@ -1507,27 +1552,30 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P15" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="S15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>216</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16">
         <v>17</v>
@@ -1536,27 +1584,30 @@
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="S16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17">
         <v>18</v>
@@ -1565,27 +1616,30 @@
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="S17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18">
         <v>19</v>
@@ -1594,27 +1648,30 @@
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -1623,27 +1680,30 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20">
         <v>20</v>
@@ -1652,27 +1712,30 @@
         <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="S20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M21">
         <v>21</v>
@@ -1681,27 +1744,30 @@
         <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="S21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -1710,27 +1776,30 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -1739,27 +1808,30 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1768,27 +1840,30 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1797,27 +1872,30 @@
         <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26">
         <v>23</v>
@@ -1826,27 +1904,30 @@
         <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27">
         <v>23</v>
@@ -1855,27 +1936,30 @@
         <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28">
         <v>23</v>
@@ -1884,27 +1968,30 @@
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M29">
         <v>23</v>
@@ -1913,27 +2000,30 @@
         <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S29" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M30">
         <v>23</v>
@@ -1942,27 +2032,30 @@
         <v>38</v>
       </c>
       <c r="O30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S30" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M31">
         <v>23</v>
@@ -1971,27 +2064,30 @@
         <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M32">
         <v>23</v>
@@ -2000,27 +2096,30 @@
         <v>38</v>
       </c>
       <c r="O32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M33">
         <v>23</v>
@@ -2029,27 +2128,30 @@
         <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M34">
         <v>23</v>
@@ -2058,27 +2160,30 @@
         <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M35">
         <v>23</v>
@@ -2087,27 +2192,30 @@
         <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M36">
         <v>23</v>
@@ -2116,27 +2224,30 @@
         <v>38</v>
       </c>
       <c r="O36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S36" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37">
         <v>23</v>
@@ -2145,27 +2256,30 @@
         <v>38</v>
       </c>
       <c r="O37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P37" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38">
         <v>23</v>
@@ -2174,27 +2288,30 @@
         <v>38</v>
       </c>
       <c r="O38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P38" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M39">
         <v>24</v>
@@ -2203,27 +2320,30 @@
         <v>51</v>
       </c>
       <c r="O39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M40">
         <v>24</v>
@@ -2232,27 +2352,30 @@
         <v>51</v>
       </c>
       <c r="O40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P40" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M41">
         <v>24</v>
@@ -2261,27 +2384,30 @@
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P41" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M42">
         <v>24</v>
@@ -2290,27 +2416,30 @@
         <v>51</v>
       </c>
       <c r="O42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P42" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M43">
         <v>24</v>
@@ -2319,27 +2448,30 @@
         <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P43" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M44">
         <v>24</v>
@@ -2348,27 +2480,30 @@
         <v>51</v>
       </c>
       <c r="O44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P44" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M45">
         <v>27</v>
@@ -2377,27 +2512,30 @@
         <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P45" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="S45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -2406,27 +2544,30 @@
         <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P46" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="S46" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M47">
         <v>29</v>
@@ -2435,27 +2576,30 @@
         <v>58</v>
       </c>
       <c r="O47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P47" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="S47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -2464,27 +2608,30 @@
         <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P48" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="S48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49">
         <v>31</v>
@@ -2493,27 +2640,30 @@
         <v>60</v>
       </c>
       <c r="O49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P49" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M50">
         <v>31</v>
@@ -2522,27 +2672,30 @@
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P50" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M51">
         <v>32</v>
@@ -2551,27 +2704,30 @@
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P51" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="S51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -2580,27 +2736,30 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M53">
         <v>34</v>
@@ -2609,27 +2768,30 @@
         <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="S53" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -2638,27 +2800,30 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M55">
         <v>42</v>
@@ -2667,27 +2832,30 @@
         <v>84</v>
       </c>
       <c r="O55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P55" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="S55" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M56">
         <v>44</v>
@@ -2696,27 +2864,30 @@
         <v>87</v>
       </c>
       <c r="O56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P56" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="S56" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M57">
         <v>45</v>
@@ -2725,27 +2896,30 @@
         <v>88</v>
       </c>
       <c r="O57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P57" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S57" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M58">
         <v>45</v>
@@ -2754,27 +2928,30 @@
         <v>88</v>
       </c>
       <c r="O58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P58" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S58" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M59">
         <v>45</v>
@@ -2783,27 +2960,30 @@
         <v>88</v>
       </c>
       <c r="O59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S59" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M60">
         <v>45</v>
@@ -2812,27 +2992,30 @@
         <v>88</v>
       </c>
       <c r="O60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S60" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -2841,27 +3024,30 @@
         <v>90</v>
       </c>
       <c r="O61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P61" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M62">
         <v>46</v>
@@ -2870,27 +3056,30 @@
         <v>90</v>
       </c>
       <c r="O62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M63">
         <v>46</v>
@@ -2899,27 +3088,30 @@
         <v>90</v>
       </c>
       <c r="O63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M64">
         <v>49</v>
@@ -2928,27 +3120,30 @@
         <v>93</v>
       </c>
       <c r="O64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S64" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M65">
         <v>49</v>
@@ -2957,27 +3152,30 @@
         <v>93</v>
       </c>
       <c r="O65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S65" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M66">
         <v>50</v>
@@ -2986,27 +3184,30 @@
         <v>94</v>
       </c>
       <c r="O66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S66" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M67">
         <v>50</v>
@@ -3015,27 +3216,30 @@
         <v>94</v>
       </c>
       <c r="O67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M68">
         <v>50</v>
@@ -3044,27 +3248,30 @@
         <v>94</v>
       </c>
       <c r="O68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S68" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M69">
         <v>53</v>
@@ -3073,27 +3280,30 @@
         <v>98</v>
       </c>
       <c r="O69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P69" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="S69" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M70">
         <v>54</v>
@@ -3102,27 +3312,30 @@
         <v>99</v>
       </c>
       <c r="O70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M71">
         <v>54</v>
@@ -3131,27 +3344,30 @@
         <v>99</v>
       </c>
       <c r="O71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M72">
         <v>54</v>
@@ -3160,27 +3376,30 @@
         <v>99</v>
       </c>
       <c r="O72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -3189,27 +3408,30 @@
         <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P73" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="S73" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M74">
         <v>57</v>
@@ -3218,27 +3440,30 @@
         <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S74" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M75">
         <v>57</v>
@@ -3247,27 +3472,30 @@
         <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M76">
         <v>57</v>
@@ -3276,27 +3504,30 @@
         <v>102</v>
       </c>
       <c r="O76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S76" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M77">
         <v>59</v>
@@ -3305,27 +3536,30 @@
         <v>104</v>
       </c>
       <c r="O77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P77" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="S77" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M78">
         <v>60</v>
@@ -3334,27 +3568,30 @@
         <v>105</v>
       </c>
       <c r="O78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P78" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="S78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M79">
         <v>61</v>
@@ -3363,27 +3600,30 @@
         <v>106</v>
       </c>
       <c r="O79" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P79" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="S79" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M80">
         <v>65</v>
@@ -3392,27 +3632,30 @@
         <v>111</v>
       </c>
       <c r="O80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="S80" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M81">
         <v>66</v>
@@ -3421,27 +3664,30 @@
         <v>113</v>
       </c>
       <c r="O81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="S81" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M82">
         <v>68</v>
@@ -3450,27 +3696,30 @@
         <v>115</v>
       </c>
       <c r="O82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="S82" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>217</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M83">
         <v>71</v>
@@ -3479,27 +3728,30 @@
         <v>119</v>
       </c>
       <c r="O83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S83" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>216</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M84">
         <v>71</v>
@@ -3508,13 +3760,16 @@
         <v>119</v>
       </c>
       <c r="O84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S84" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="219">
   <si>
     <t>p34_cod</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1042,13 +1045,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,19 +1118,22 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1136,30 +1142,33 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1168,30 +1177,33 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="S3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1200,30 +1212,33 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1232,30 +1247,33 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1264,30 +1282,33 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1296,30 +1317,33 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1328,30 +1352,33 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1360,30 +1387,33 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1392,30 +1422,33 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1424,30 +1457,33 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P11" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -1456,30 +1492,33 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1488,30 +1527,33 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1520,30 +1562,33 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15">
         <v>16</v>
@@ -1552,30 +1597,33 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P15" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16">
         <v>17</v>
@@ -1584,30 +1632,33 @@
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M17">
         <v>18</v>
@@ -1616,30 +1667,33 @@
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P17" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18">
         <v>19</v>
@@ -1648,30 +1702,33 @@
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -1680,30 +1737,33 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20">
         <v>20</v>
@@ -1712,30 +1772,33 @@
         <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="S20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M21">
         <v>21</v>
@@ -1744,30 +1807,33 @@
         <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="S21" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -1776,30 +1842,33 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -1808,30 +1877,33 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1840,30 +1912,33 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1872,30 +1947,33 @@
         <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26">
         <v>23</v>
@@ -1904,30 +1982,33 @@
         <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M27">
         <v>23</v>
@@ -1936,30 +2017,33 @@
         <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M28">
         <v>23</v>
@@ -1968,30 +2052,33 @@
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29">
         <v>23</v>
@@ -2000,30 +2087,33 @@
         <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M30">
         <v>23</v>
@@ -2032,30 +2122,33 @@
         <v>38</v>
       </c>
       <c r="O30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M31">
         <v>23</v>
@@ -2064,30 +2157,33 @@
         <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M32">
         <v>23</v>
@@ -2096,30 +2192,33 @@
         <v>38</v>
       </c>
       <c r="O32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M33">
         <v>23</v>
@@ -2128,30 +2227,33 @@
         <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M34">
         <v>23</v>
@@ -2160,30 +2262,33 @@
         <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M35">
         <v>23</v>
@@ -2192,30 +2297,33 @@
         <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M36">
         <v>23</v>
@@ -2224,30 +2332,33 @@
         <v>38</v>
       </c>
       <c r="O36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M37">
         <v>23</v>
@@ -2256,30 +2367,33 @@
         <v>38</v>
       </c>
       <c r="O37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P37" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M38">
         <v>23</v>
@@ -2288,30 +2402,33 @@
         <v>38</v>
       </c>
       <c r="O38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P38" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M39">
         <v>24</v>
@@ -2320,30 +2437,33 @@
         <v>51</v>
       </c>
       <c r="O39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M40">
         <v>24</v>
@@ -2352,30 +2472,33 @@
         <v>51</v>
       </c>
       <c r="O40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P40" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M41">
         <v>24</v>
@@ -2384,30 +2507,33 @@
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P41" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M42">
         <v>24</v>
@@ -2416,30 +2542,33 @@
         <v>51</v>
       </c>
       <c r="O42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P42" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M43">
         <v>24</v>
@@ -2448,30 +2577,33 @@
         <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P43" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M44">
         <v>24</v>
@@ -2480,30 +2612,33 @@
         <v>51</v>
       </c>
       <c r="O44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P44" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M45">
         <v>27</v>
@@ -2512,30 +2647,33 @@
         <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P45" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="S45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -2544,30 +2682,33 @@
         <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P46" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="S46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M47">
         <v>29</v>
@@ -2576,30 +2717,33 @@
         <v>58</v>
       </c>
       <c r="O47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P47" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="S47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -2608,30 +2752,33 @@
         <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P48" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="S48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M49">
         <v>31</v>
@@ -2640,30 +2787,33 @@
         <v>60</v>
       </c>
       <c r="O49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P49" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M50">
         <v>31</v>
@@ -2672,30 +2822,33 @@
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P50" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M51">
         <v>32</v>
@@ -2704,30 +2857,33 @@
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P51" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="S51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -2736,30 +2892,33 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M53">
         <v>34</v>
@@ -2768,30 +2927,33 @@
         <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="S53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -2800,30 +2962,33 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M55">
         <v>42</v>
@@ -2832,30 +2997,33 @@
         <v>84</v>
       </c>
       <c r="O55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P55" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="S55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M56">
         <v>44</v>
@@ -2864,30 +3032,33 @@
         <v>87</v>
       </c>
       <c r="O56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P56" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="S56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M57">
         <v>45</v>
@@ -2896,30 +3067,33 @@
         <v>88</v>
       </c>
       <c r="O57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P57" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M58">
         <v>45</v>
@@ -2928,30 +3102,33 @@
         <v>88</v>
       </c>
       <c r="O58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P58" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M59">
         <v>45</v>
@@ -2960,30 +3137,33 @@
         <v>88</v>
       </c>
       <c r="O59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M60">
         <v>45</v>
@@ -2992,30 +3172,33 @@
         <v>88</v>
       </c>
       <c r="O60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -3024,30 +3207,33 @@
         <v>90</v>
       </c>
       <c r="O61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P61" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M62">
         <v>46</v>
@@ -3056,30 +3242,33 @@
         <v>90</v>
       </c>
       <c r="O62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M63">
         <v>46</v>
@@ -3088,30 +3277,33 @@
         <v>90</v>
       </c>
       <c r="O63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M64">
         <v>49</v>
@@ -3120,30 +3312,33 @@
         <v>93</v>
       </c>
       <c r="O64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M65">
         <v>49</v>
@@ -3152,30 +3347,33 @@
         <v>93</v>
       </c>
       <c r="O65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S65" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M66">
         <v>50</v>
@@ -3184,30 +3382,33 @@
         <v>94</v>
       </c>
       <c r="O66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M67">
         <v>50</v>
@@ -3216,30 +3417,33 @@
         <v>94</v>
       </c>
       <c r="O67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M68">
         <v>50</v>
@@ -3248,30 +3452,33 @@
         <v>94</v>
       </c>
       <c r="O68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M69">
         <v>53</v>
@@ -3280,30 +3487,33 @@
         <v>98</v>
       </c>
       <c r="O69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P69" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="S69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M70">
         <v>54</v>
@@ -3312,30 +3522,33 @@
         <v>99</v>
       </c>
       <c r="O70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M71">
         <v>54</v>
@@ -3344,30 +3557,33 @@
         <v>99</v>
       </c>
       <c r="O71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M72">
         <v>54</v>
@@ -3376,30 +3592,33 @@
         <v>99</v>
       </c>
       <c r="O72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -3408,30 +3627,33 @@
         <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P73" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="S73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M74">
         <v>57</v>
@@ -3440,30 +3662,33 @@
         <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M75">
         <v>57</v>
@@ -3472,30 +3697,33 @@
         <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M76">
         <v>57</v>
@@ -3504,30 +3732,33 @@
         <v>102</v>
       </c>
       <c r="O76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S76" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M77">
         <v>59</v>
@@ -3536,30 +3767,33 @@
         <v>104</v>
       </c>
       <c r="O77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P77" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="S77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:22">
+      <c r="W77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M78">
         <v>60</v>
@@ -3568,30 +3802,33 @@
         <v>105</v>
       </c>
       <c r="O78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P78" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="S78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:22">
+      <c r="W78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M79">
         <v>61</v>
@@ -3600,30 +3837,33 @@
         <v>106</v>
       </c>
       <c r="O79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P79" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="S79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22">
+      <c r="W79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M80">
         <v>64</v>
@@ -3632,30 +3872,33 @@
         <v>111</v>
       </c>
       <c r="O80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="S80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:22">
+      <c r="W80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M81">
         <v>65</v>
@@ -3664,30 +3907,33 @@
         <v>113</v>
       </c>
       <c r="O81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="S81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:22">
+      <c r="W81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M82">
         <v>67</v>
@@ -3696,30 +3942,33 @@
         <v>115</v>
       </c>
       <c r="O82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="S82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:22">
+      <c r="W82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M83">
         <v>70</v>
@@ -3728,30 +3977,33 @@
         <v>119</v>
       </c>
       <c r="O83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22">
+      <c r="W83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M84">
         <v>70</v>
@@ -3760,15 +4012,18 @@
         <v>119</v>
       </c>
       <c r="O84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="220">
   <si>
     <t>p34_cod</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1045,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,19 +1124,22 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1142,13 +1148,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1156,19 +1162,22 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -1177,13 +1186,13 @@
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P3" s="3">
         <v>45026.55694444444</v>
       </c>
       <c r="S3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1191,19 +1200,22 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M4">
         <v>9</v>
@@ -1212,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1226,19 +1238,22 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1247,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P5" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1261,19 +1276,22 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1282,13 +1300,13 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1296,19 +1314,22 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1317,13 +1338,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1331,19 +1352,22 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1352,13 +1376,13 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1366,19 +1390,22 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1387,13 +1414,13 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1401,19 +1428,22 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1422,13 +1452,13 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1436,19 +1466,22 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1457,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P11" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1471,19 +1504,22 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M12">
         <v>13</v>
@@ -1492,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P12" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1506,19 +1542,22 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M13">
         <v>13</v>
@@ -1527,13 +1566,13 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P13" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1541,19 +1580,22 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M14">
         <v>13</v>
@@ -1562,13 +1604,13 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="S14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -1576,19 +1618,22 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15">
         <v>16</v>
@@ -1597,13 +1642,13 @@
         <v>25</v>
       </c>
       <c r="O15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P15" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="S15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -1611,19 +1656,22 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16">
         <v>17</v>
@@ -1632,13 +1680,13 @@
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="S16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -1646,19 +1694,22 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17">
         <v>18</v>
@@ -1667,13 +1718,13 @@
         <v>27</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P17" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="S17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1681,19 +1732,22 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M18">
         <v>19</v>
@@ -1702,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="O18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -1716,19 +1770,22 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -1737,13 +1794,13 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P19" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -1751,19 +1808,22 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20">
         <v>20</v>
@@ -1772,13 +1832,13 @@
         <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P20" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="S20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -1786,19 +1846,22 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21">
         <v>21</v>
@@ -1807,13 +1870,13 @@
         <v>34</v>
       </c>
       <c r="O21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="S21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -1821,19 +1884,22 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -1842,13 +1908,13 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -1856,19 +1922,22 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M23">
         <v>23</v>
@@ -1877,13 +1946,13 @@
         <v>38</v>
       </c>
       <c r="O23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -1891,19 +1960,22 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M24">
         <v>23</v>
@@ -1912,13 +1984,13 @@
         <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -1926,19 +1998,22 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1947,13 +2022,13 @@
         <v>38</v>
       </c>
       <c r="O25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -1961,19 +2036,22 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M26">
         <v>23</v>
@@ -1982,13 +2060,13 @@
         <v>38</v>
       </c>
       <c r="O26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -1996,19 +2074,22 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M27">
         <v>23</v>
@@ -2017,13 +2098,13 @@
         <v>38</v>
       </c>
       <c r="O27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2031,19 +2112,22 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M28">
         <v>23</v>
@@ -2052,13 +2136,13 @@
         <v>38</v>
       </c>
       <c r="O28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2066,19 +2150,22 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M29">
         <v>23</v>
@@ -2087,13 +2174,13 @@
         <v>38</v>
       </c>
       <c r="O29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2101,19 +2188,22 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30">
         <v>23</v>
@@ -2122,13 +2212,13 @@
         <v>38</v>
       </c>
       <c r="O30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2136,19 +2226,22 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M31">
         <v>23</v>
@@ -2157,13 +2250,13 @@
         <v>38</v>
       </c>
       <c r="O31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2171,19 +2264,22 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32">
         <v>23</v>
@@ -2192,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="O32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2206,19 +2302,22 @@
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M33">
         <v>23</v>
@@ -2227,13 +2326,13 @@
         <v>38</v>
       </c>
       <c r="O33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S33" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2241,19 +2340,22 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M34">
         <v>23</v>
@@ -2262,13 +2364,13 @@
         <v>38</v>
       </c>
       <c r="O34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2276,19 +2378,22 @@
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M35">
         <v>23</v>
@@ -2297,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -2311,19 +2416,22 @@
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M36">
         <v>23</v>
@@ -2332,13 +2440,13 @@
         <v>38</v>
       </c>
       <c r="O36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P36" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S36" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -2346,19 +2454,22 @@
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M37">
         <v>23</v>
@@ -2367,13 +2478,13 @@
         <v>38</v>
       </c>
       <c r="O37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P37" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -2381,19 +2492,22 @@
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M38">
         <v>23</v>
@@ -2402,13 +2516,13 @@
         <v>38</v>
       </c>
       <c r="O38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P38" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="S38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -2416,19 +2530,22 @@
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M39">
         <v>24</v>
@@ -2437,13 +2554,13 @@
         <v>51</v>
       </c>
       <c r="O39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P39" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -2451,19 +2568,22 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M40">
         <v>24</v>
@@ -2472,13 +2592,13 @@
         <v>51</v>
       </c>
       <c r="O40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P40" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -2486,19 +2606,22 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M41">
         <v>24</v>
@@ -2507,13 +2630,13 @@
         <v>51</v>
       </c>
       <c r="O41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P41" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -2521,19 +2644,22 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M42">
         <v>24</v>
@@ -2542,13 +2668,13 @@
         <v>51</v>
       </c>
       <c r="O42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P42" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -2556,19 +2682,22 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M43">
         <v>24</v>
@@ -2577,13 +2706,13 @@
         <v>51</v>
       </c>
       <c r="O43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P43" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -2591,19 +2720,22 @@
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M44">
         <v>24</v>
@@ -2612,13 +2744,13 @@
         <v>51</v>
       </c>
       <c r="O44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P44" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="S44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -2626,19 +2758,22 @@
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M45">
         <v>27</v>
@@ -2647,13 +2782,13 @@
         <v>56</v>
       </c>
       <c r="O45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P45" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="S45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -2661,19 +2796,22 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -2682,13 +2820,13 @@
         <v>57</v>
       </c>
       <c r="O46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P46" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="S46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -2696,19 +2834,22 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M47">
         <v>29</v>
@@ -2717,13 +2858,13 @@
         <v>58</v>
       </c>
       <c r="O47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P47" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="S47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -2731,19 +2872,22 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M48">
         <v>30</v>
@@ -2752,13 +2896,13 @@
         <v>59</v>
       </c>
       <c r="O48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P48" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="S48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -2766,19 +2910,22 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M49">
         <v>31</v>
@@ -2787,13 +2934,13 @@
         <v>60</v>
       </c>
       <c r="O49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P49" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -2801,19 +2948,22 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M50">
         <v>31</v>
@@ -2822,13 +2972,13 @@
         <v>60</v>
       </c>
       <c r="O50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P50" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="S50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -2836,19 +2986,22 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M51">
         <v>32</v>
@@ -2857,13 +3010,13 @@
         <v>61</v>
       </c>
       <c r="O51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P51" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="S51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -2871,19 +3024,22 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -2892,13 +3048,13 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P52" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -2906,19 +3062,22 @@
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M53">
         <v>34</v>
@@ -2927,13 +3086,13 @@
         <v>64</v>
       </c>
       <c r="O53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P53" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="S53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -2941,19 +3100,22 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -2962,13 +3124,13 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -2976,19 +3138,22 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M55">
         <v>42</v>
@@ -2997,13 +3162,13 @@
         <v>84</v>
       </c>
       <c r="O55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P55" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="S55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -3011,19 +3176,22 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M56">
         <v>44</v>
@@ -3032,13 +3200,13 @@
         <v>87</v>
       </c>
       <c r="O56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P56" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="S56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -3046,19 +3214,22 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M57">
         <v>45</v>
@@ -3067,13 +3238,13 @@
         <v>88</v>
       </c>
       <c r="O57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P57" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -3081,19 +3252,22 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M58">
         <v>45</v>
@@ -3102,13 +3276,13 @@
         <v>88</v>
       </c>
       <c r="O58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P58" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -3116,19 +3290,22 @@
       <c r="W58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M59">
         <v>45</v>
@@ -3137,13 +3314,13 @@
         <v>88</v>
       </c>
       <c r="O59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -3151,19 +3328,22 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M60">
         <v>45</v>
@@ -3172,13 +3352,13 @@
         <v>88</v>
       </c>
       <c r="O60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="S60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -3186,19 +3366,22 @@
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M61">
         <v>46</v>
@@ -3207,13 +3390,13 @@
         <v>90</v>
       </c>
       <c r="O61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P61" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -3221,19 +3404,22 @@
       <c r="W61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M62">
         <v>46</v>
@@ -3242,13 +3428,13 @@
         <v>90</v>
       </c>
       <c r="O62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P62" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -3256,19 +3442,22 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M63">
         <v>46</v>
@@ -3277,13 +3466,13 @@
         <v>90</v>
       </c>
       <c r="O63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="S63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -3291,19 +3480,22 @@
       <c r="W63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M64">
         <v>49</v>
@@ -3312,13 +3504,13 @@
         <v>93</v>
       </c>
       <c r="O64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P64" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -3326,19 +3518,22 @@
       <c r="W64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M65">
         <v>49</v>
@@ -3347,13 +3542,13 @@
         <v>93</v>
       </c>
       <c r="O65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="S65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -3361,19 +3556,22 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M66">
         <v>50</v>
@@ -3382,13 +3580,13 @@
         <v>94</v>
       </c>
       <c r="O66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -3396,19 +3594,22 @@
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M67">
         <v>50</v>
@@ -3417,13 +3618,13 @@
         <v>94</v>
       </c>
       <c r="O67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P67" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -3431,19 +3632,22 @@
       <c r="W67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M68">
         <v>50</v>
@@ -3452,13 +3656,13 @@
         <v>94</v>
       </c>
       <c r="O68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P68" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="S68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -3466,19 +3670,22 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M69">
         <v>53</v>
@@ -3487,13 +3694,13 @@
         <v>98</v>
       </c>
       <c r="O69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P69" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="S69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -3501,19 +3708,22 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M70">
         <v>54</v>
@@ -3522,13 +3732,13 @@
         <v>99</v>
       </c>
       <c r="O70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P70" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -3536,19 +3746,22 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M71">
         <v>54</v>
@@ -3557,13 +3770,13 @@
         <v>99</v>
       </c>
       <c r="O71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P71" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -3571,19 +3784,22 @@
       <c r="W71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M72">
         <v>54</v>
@@ -3592,13 +3808,13 @@
         <v>99</v>
       </c>
       <c r="O72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P72" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="S72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -3606,19 +3822,22 @@
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M73">
         <v>55</v>
@@ -3627,13 +3846,13 @@
         <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P73" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="S73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -3641,19 +3860,22 @@
       <c r="W73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M74">
         <v>57</v>
@@ -3662,13 +3884,13 @@
         <v>102</v>
       </c>
       <c r="O74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P74" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -3676,19 +3898,22 @@
       <c r="W74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M75">
         <v>57</v>
@@ -3697,13 +3922,13 @@
         <v>102</v>
       </c>
       <c r="O75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P75" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -3711,19 +3936,22 @@
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M76">
         <v>57</v>
@@ -3732,13 +3960,13 @@
         <v>102</v>
       </c>
       <c r="O76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P76" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="S76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -3746,19 +3974,22 @@
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M77">
         <v>59</v>
@@ -3767,13 +3998,13 @@
         <v>104</v>
       </c>
       <c r="O77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P77" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="S77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -3781,19 +4012,22 @@
       <c r="W77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M78">
         <v>60</v>
@@ -3802,13 +4036,13 @@
         <v>105</v>
       </c>
       <c r="O78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P78" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="S78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -3816,19 +4050,22 @@
       <c r="W78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M79">
         <v>61</v>
@@ -3837,13 +4074,13 @@
         <v>106</v>
       </c>
       <c r="O79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P79" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="S79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -3851,19 +4088,22 @@
       <c r="W79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M80">
         <v>64</v>
@@ -3872,13 +4112,13 @@
         <v>111</v>
       </c>
       <c r="O80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P80" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="S80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -3886,19 +4126,22 @@
       <c r="W80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M81">
         <v>65</v>
@@ -3907,13 +4150,13 @@
         <v>113</v>
       </c>
       <c r="O81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P81" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="S81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -3921,19 +4164,22 @@
       <c r="W81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M82">
         <v>67</v>
@@ -3942,13 +4188,13 @@
         <v>115</v>
       </c>
       <c r="O82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P82" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="S82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -3956,19 +4202,22 @@
       <c r="W82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M83">
         <v>70</v>
@@ -3977,13 +4226,13 @@
         <v>119</v>
       </c>
       <c r="O83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P83" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -3991,19 +4240,22 @@
       <c r="W83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M84">
         <v>70</v>
@@ -4012,18 +4264,21 @@
         <v>119</v>
       </c>
       <c r="O84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P84" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="S84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="V84">
         <v>0</v>
       </c>
       <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -1750,13 +1750,13 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -670,13 +670,13 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">

--- a/files/separadas/repeat_p34.xlsx
+++ b/files/separadas/repeat_p34.xlsx
@@ -2976,7 +2976,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47">
@@ -4272,7 +4272,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="71">
@@ -4326,7 +4326,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="72">
@@ -4380,7 +4380,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73">
@@ -4650,7 +4650,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="78">
@@ -4758,7 +4758,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80">
